--- a/ガントチャートひな型.xlsx
+++ b/ガントチャートひな型.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC38E6-EAAE-4B97-AC12-A2D2F147CCF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C296C3D-3026-4C9A-B711-6A4BD6D0C0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1384,6 +1384,18 @@
     <xf numFmtId="181" fontId="1" fillId="45" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1401,18 +1413,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2174,8 +2174,8 @@
   <dimension ref="A1:CG24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2227,136 +2227,136 @@
       <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <v>45612</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:85" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="I4" s="83">
+        <v>1</v>
+      </c>
+      <c r="I4" s="87">
         <f>I5</f>
+        <v>45607</v>
+      </c>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
+        <f>P5</f>
+        <v>45614</v>
+      </c>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
+        <f>W5</f>
+        <v>45621</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
+        <f>AD5</f>
+        <v>45628</v>
+      </c>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
+        <f>AK5</f>
         <v>45635</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="83">
-        <f>P5</f>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
+        <f>AR5</f>
         <v>45642</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="83">
-        <f>W5</f>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
+        <f>AY5</f>
         <v>45649</v>
       </c>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="83">
-        <f>AD5</f>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
+        <f>BF5</f>
         <v>45656</v>
       </c>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="83">
-        <f>AK5</f>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="87">
+        <f>BM5</f>
         <v>45663</v>
       </c>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="83">
-        <f>AR5</f>
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="89"/>
+      <c r="BT4" s="87">
+        <f>BT5</f>
         <v>45670</v>
       </c>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="83">
-        <f>AY5</f>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="89"/>
+      <c r="CA4" s="87">
+        <f>CA5</f>
         <v>45677</v>
       </c>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="85"/>
-      <c r="BF4" s="83">
-        <f>BF5</f>
-        <v>45684</v>
-      </c>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="85"/>
-      <c r="BM4" s="83">
-        <f>BM5</f>
-        <v>45691</v>
-      </c>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="84"/>
-      <c r="BS4" s="85"/>
-      <c r="BT4" s="83">
-        <f>BT5</f>
-        <v>45698</v>
-      </c>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="84"/>
-      <c r="BY4" s="84"/>
-      <c r="BZ4" s="85"/>
-      <c r="CA4" s="83">
-        <f>CA5</f>
-        <v>45705</v>
-      </c>
-      <c r="CB4" s="84"/>
-      <c r="CC4" s="84"/>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="84"/>
-      <c r="CF4" s="84"/>
-      <c r="CG4" s="85"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="89"/>
     </row>
     <row r="5" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2365,316 +2365,318 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="I5" s="61">
         <f>プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45635</v>
+        <v>45607</v>
       </c>
       <c r="J5" s="62">
         <f>I5+1</f>
-        <v>45636</v>
+        <v>45608</v>
       </c>
       <c r="K5" s="62">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45637</v>
+        <v>45609</v>
       </c>
       <c r="L5" s="62">
         <f t="shared" si="0"/>
-        <v>45638</v>
+        <v>45610</v>
       </c>
       <c r="M5" s="62">
         <f t="shared" si="0"/>
-        <v>45639</v>
+        <v>45611</v>
       </c>
       <c r="N5" s="62">
         <f t="shared" si="0"/>
-        <v>45640</v>
+        <v>45612</v>
       </c>
       <c r="O5" s="63">
         <f t="shared" si="0"/>
-        <v>45641</v>
+        <v>45613</v>
       </c>
       <c r="P5" s="61">
         <f>O5+1</f>
-        <v>45642</v>
+        <v>45614</v>
       </c>
       <c r="Q5" s="62">
         <f>P5+1</f>
-        <v>45643</v>
+        <v>45615</v>
       </c>
       <c r="R5" s="62">
         <f t="shared" si="0"/>
-        <v>45644</v>
+        <v>45616</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" si="0"/>
-        <v>45645</v>
+        <v>45617</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>45646</v>
+        <v>45618</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="0"/>
-        <v>45647</v>
+        <v>45619</v>
       </c>
       <c r="V5" s="63">
         <f t="shared" si="0"/>
-        <v>45648</v>
+        <v>45620</v>
       </c>
       <c r="W5" s="61">
         <f>V5+1</f>
-        <v>45649</v>
+        <v>45621</v>
       </c>
       <c r="X5" s="62">
         <f>W5+1</f>
-        <v>45650</v>
+        <v>45622</v>
       </c>
       <c r="Y5" s="62">
         <f t="shared" si="0"/>
-        <v>45651</v>
+        <v>45623</v>
       </c>
       <c r="Z5" s="62">
         <f t="shared" si="0"/>
-        <v>45652</v>
+        <v>45624</v>
       </c>
       <c r="AA5" s="62">
         <f t="shared" si="0"/>
-        <v>45653</v>
+        <v>45625</v>
       </c>
       <c r="AB5" s="62">
         <f t="shared" si="0"/>
-        <v>45654</v>
+        <v>45626</v>
       </c>
       <c r="AC5" s="63">
         <f t="shared" si="0"/>
-        <v>45655</v>
+        <v>45627</v>
       </c>
       <c r="AD5" s="61">
         <f>AC5+1</f>
-        <v>45656</v>
+        <v>45628</v>
       </c>
       <c r="AE5" s="62">
         <f>AD5+1</f>
-        <v>45657</v>
+        <v>45629</v>
       </c>
       <c r="AF5" s="62">
         <f t="shared" si="0"/>
-        <v>45658</v>
+        <v>45630</v>
       </c>
       <c r="AG5" s="62">
         <f t="shared" si="0"/>
-        <v>45659</v>
+        <v>45631</v>
       </c>
       <c r="AH5" s="62">
         <f t="shared" si="0"/>
-        <v>45660</v>
+        <v>45632</v>
       </c>
       <c r="AI5" s="62">
         <f t="shared" si="0"/>
-        <v>45661</v>
+        <v>45633</v>
       </c>
       <c r="AJ5" s="63">
         <f t="shared" si="0"/>
-        <v>45662</v>
+        <v>45634</v>
       </c>
       <c r="AK5" s="61">
         <f>AJ5+1</f>
-        <v>45663</v>
+        <v>45635</v>
       </c>
       <c r="AL5" s="62">
         <f>AK5+1</f>
-        <v>45664</v>
+        <v>45636</v>
       </c>
       <c r="AM5" s="62">
         <f t="shared" si="0"/>
-        <v>45665</v>
+        <v>45637</v>
       </c>
       <c r="AN5" s="62">
         <f t="shared" si="0"/>
-        <v>45666</v>
+        <v>45638</v>
       </c>
       <c r="AO5" s="62">
         <f t="shared" si="0"/>
-        <v>45667</v>
+        <v>45639</v>
       </c>
       <c r="AP5" s="62">
         <f t="shared" si="0"/>
-        <v>45668</v>
+        <v>45640</v>
       </c>
       <c r="AQ5" s="63">
         <f t="shared" si="0"/>
-        <v>45669</v>
+        <v>45641</v>
       </c>
       <c r="AR5" s="61">
         <f>AQ5+1</f>
-        <v>45670</v>
+        <v>45642</v>
       </c>
       <c r="AS5" s="62">
         <f>AR5+1</f>
-        <v>45671</v>
+        <v>45643</v>
       </c>
       <c r="AT5" s="62">
         <f t="shared" si="0"/>
-        <v>45672</v>
+        <v>45644</v>
       </c>
       <c r="AU5" s="62">
         <f t="shared" si="0"/>
-        <v>45673</v>
+        <v>45645</v>
       </c>
       <c r="AV5" s="62">
         <f t="shared" si="0"/>
-        <v>45674</v>
+        <v>45646</v>
       </c>
       <c r="AW5" s="62">
         <f t="shared" si="0"/>
-        <v>45675</v>
+        <v>45647</v>
       </c>
       <c r="AX5" s="63">
         <f t="shared" si="0"/>
-        <v>45676</v>
+        <v>45648</v>
       </c>
       <c r="AY5" s="61">
         <f>AX5+1</f>
-        <v>45677</v>
+        <v>45649</v>
       </c>
       <c r="AZ5" s="62">
         <f>AY5+1</f>
-        <v>45678</v>
+        <v>45650</v>
       </c>
       <c r="BA5" s="62">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45679</v>
+        <v>45651</v>
       </c>
       <c r="BB5" s="62">
         <f t="shared" si="1"/>
-        <v>45680</v>
+        <v>45652</v>
       </c>
       <c r="BC5" s="62">
         <f t="shared" si="1"/>
-        <v>45681</v>
+        <v>45653</v>
       </c>
       <c r="BD5" s="62">
         <f t="shared" si="1"/>
-        <v>45682</v>
+        <v>45654</v>
       </c>
       <c r="BE5" s="63">
         <f t="shared" si="1"/>
-        <v>45683</v>
+        <v>45655</v>
       </c>
       <c r="BF5" s="61">
         <f>BE5+1</f>
-        <v>45684</v>
+        <v>45656</v>
       </c>
       <c r="BG5" s="62">
         <f>BF5+1</f>
-        <v>45685</v>
+        <v>45657</v>
       </c>
       <c r="BH5" s="62">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45686</v>
+        <v>45658</v>
       </c>
       <c r="BI5" s="62">
         <f t="shared" si="2"/>
-        <v>45687</v>
+        <v>45659</v>
       </c>
       <c r="BJ5" s="62">
         <f t="shared" si="2"/>
-        <v>45688</v>
+        <v>45660</v>
       </c>
       <c r="BK5" s="62">
         <f t="shared" si="2"/>
-        <v>45689</v>
+        <v>45661</v>
       </c>
       <c r="BL5" s="63">
         <f t="shared" si="2"/>
-        <v>45690</v>
+        <v>45662</v>
       </c>
       <c r="BM5" s="61">
         <f>BL5+1</f>
-        <v>45691</v>
+        <v>45663</v>
       </c>
       <c r="BN5" s="62">
         <f>BM5+1</f>
-        <v>45692</v>
+        <v>45664</v>
       </c>
       <c r="BO5" s="62">
         <f t="shared" ref="BO5" si="3">BN5+1</f>
-        <v>45693</v>
+        <v>45665</v>
       </c>
       <c r="BP5" s="62">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
-        <v>45694</v>
+        <v>45666</v>
       </c>
       <c r="BQ5" s="62">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
-        <v>45695</v>
+        <v>45667</v>
       </c>
       <c r="BR5" s="62">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
-        <v>45696</v>
+        <v>45668</v>
       </c>
       <c r="BS5" s="63">
         <f t="shared" ref="BS5" si="7">BR5+1</f>
-        <v>45697</v>
+        <v>45669</v>
       </c>
       <c r="BT5" s="61">
         <f>BS5+1</f>
-        <v>45698</v>
+        <v>45670</v>
       </c>
       <c r="BU5" s="62">
         <f>BT5+1</f>
-        <v>45699</v>
+        <v>45671</v>
       </c>
       <c r="BV5" s="62">
         <f t="shared" ref="BV5" si="8">BU5+1</f>
-        <v>45700</v>
+        <v>45672</v>
       </c>
       <c r="BW5" s="62">
         <f t="shared" ref="BW5" si="9">BV5+1</f>
-        <v>45701</v>
+        <v>45673</v>
       </c>
       <c r="BX5" s="62">
         <f t="shared" ref="BX5" si="10">BW5+1</f>
-        <v>45702</v>
+        <v>45674</v>
       </c>
       <c r="BY5" s="62">
         <f t="shared" ref="BY5" si="11">BX5+1</f>
-        <v>45703</v>
+        <v>45675</v>
       </c>
       <c r="BZ5" s="63">
         <f t="shared" ref="BZ5" si="12">BY5+1</f>
-        <v>45704</v>
+        <v>45676</v>
       </c>
       <c r="CA5" s="61">
         <f>BZ5+1</f>
-        <v>45705</v>
+        <v>45677</v>
       </c>
       <c r="CB5" s="62">
         <f>CA5+1</f>
-        <v>45706</v>
+        <v>45678</v>
       </c>
       <c r="CC5" s="62">
         <f t="shared" ref="CC5" si="13">CB5+1</f>
-        <v>45707</v>
+        <v>45679</v>
       </c>
       <c r="CD5" s="62">
         <f t="shared" ref="CD5" si="14">CC5+1</f>
-        <v>45708</v>
+        <v>45680</v>
       </c>
       <c r="CE5" s="62">
         <f t="shared" ref="CE5" si="15">CD5+1</f>
-        <v>45709</v>
+        <v>45681</v>
       </c>
       <c r="CF5" s="62">
         <f t="shared" ref="CF5" si="16">CE5+1</f>
-        <v>45710</v>
+        <v>45682</v>
       </c>
       <c r="CG5" s="63">
         <f t="shared" ref="CG5" si="17">CF5+1</f>
-        <v>45711</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="6" spans="1:85" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3220,11 +3222,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -3322,12 +3324,12 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -3501,7 +3503,7 @@
       <c r="E12" s="67">
         <v>45619</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="85">
         <v>45628</v>
       </c>
       <c r="G12" s="36"/>
@@ -3596,10 +3598,10 @@
       <c r="D13" s="40">
         <v>0</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="85">
         <v>45629</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="85">
         <v>45631</v>
       </c>
       <c r="G13" s="36"/>
@@ -4081,7 +4083,7 @@
       <c r="E18" s="73">
         <v>45645</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="86">
         <v>45664</v>
       </c>
       <c r="G18" s="36"/>
@@ -4532,7 +4534,7 @@
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
+      <c r="BL22" s="84"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
       <c r="BO22" s="4"/>
@@ -4644,7 +4646,7 @@
       <c r="BW23" s="4"/>
       <c r="BX23" s="4"/>
       <c r="BY23" s="4"/>
-      <c r="BZ23" s="4"/>
+      <c r="BZ23" s="84"/>
       <c r="CA23" s="4"/>
       <c r="CB23" s="4"/>
       <c r="CC23" s="4"/>
